--- a/SchedulingData/dynamic11/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.58</v>
+        <v>246.2</v>
       </c>
       <c r="D2" t="n">
-        <v>277.32</v>
+        <v>320.08</v>
       </c>
       <c r="E2" t="n">
-        <v>13.768</v>
+        <v>12.572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>277.32</v>
+        <v>239.38</v>
       </c>
       <c r="D3" t="n">
-        <v>319.42</v>
+        <v>306.8</v>
       </c>
       <c r="E3" t="n">
-        <v>10.688</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>204.26</v>
+        <v>320.08</v>
       </c>
       <c r="D4" t="n">
-        <v>251.92</v>
+        <v>352.88</v>
       </c>
       <c r="E4" t="n">
-        <v>14.008</v>
+        <v>9.932</v>
       </c>
     </row>
     <row r="5">
@@ -523,188 +523,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>225.4</v>
+        <v>212.8</v>
       </c>
       <c r="D5" t="n">
-        <v>293.6</v>
+        <v>259.92</v>
       </c>
       <c r="E5" t="n">
-        <v>9.82</v>
+        <v>14.188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>319.42</v>
+        <v>352.88</v>
       </c>
       <c r="D6" t="n">
-        <v>369.38</v>
+        <v>400.78</v>
       </c>
       <c r="E6" t="n">
-        <v>8.311999999999999</v>
+        <v>7.772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>293.6</v>
+        <v>258.74</v>
       </c>
       <c r="D7" t="n">
-        <v>345.04</v>
+        <v>307.92</v>
       </c>
       <c r="E7" t="n">
-        <v>7.276</v>
+        <v>11.888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>201.32</v>
+        <v>259.92</v>
       </c>
       <c r="D8" t="n">
-        <v>251.28</v>
+        <v>312.24</v>
       </c>
       <c r="E8" t="n">
-        <v>16.872</v>
+        <v>9.596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>251.92</v>
+        <v>312.24</v>
       </c>
       <c r="D9" t="n">
-        <v>313.62</v>
+        <v>354.08</v>
       </c>
       <c r="E9" t="n">
-        <v>8.968</v>
+        <v>7.052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>226.7</v>
+        <v>217.72</v>
       </c>
       <c r="D10" t="n">
-        <v>299.12</v>
+        <v>276.62</v>
       </c>
       <c r="E10" t="n">
-        <v>12.708</v>
+        <v>11.028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>345.04</v>
+        <v>223.58</v>
       </c>
       <c r="D11" t="n">
-        <v>393.7</v>
+        <v>259.58</v>
       </c>
       <c r="E11" t="n">
-        <v>4.52</v>
+        <v>11.732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>270.62</v>
+        <v>306.8</v>
       </c>
       <c r="D12" t="n">
-        <v>342.9</v>
+        <v>376.26</v>
       </c>
       <c r="E12" t="n">
-        <v>9.859999999999999</v>
+        <v>8.103999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>342.9</v>
+        <v>276.62</v>
       </c>
       <c r="D13" t="n">
-        <v>395.88</v>
+        <v>331.32</v>
       </c>
       <c r="E13" t="n">
-        <v>6.692</v>
+        <v>8.167999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>369.38</v>
+        <v>354.08</v>
       </c>
       <c r="D14" t="n">
-        <v>413.76</v>
+        <v>395.98</v>
       </c>
       <c r="E14" t="n">
-        <v>5.504</v>
+        <v>4.972</v>
       </c>
     </row>
     <row r="15">
@@ -713,166 +713,166 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>395.88</v>
+        <v>307.92</v>
       </c>
       <c r="D15" t="n">
-        <v>436.28</v>
+        <v>340.82</v>
       </c>
       <c r="E15" t="n">
-        <v>4.272</v>
+        <v>9.728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>299.12</v>
+        <v>376.26</v>
       </c>
       <c r="D16" t="n">
-        <v>368.58</v>
+        <v>419.9</v>
       </c>
       <c r="E16" t="n">
-        <v>10.332</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>368.58</v>
+        <v>331.32</v>
       </c>
       <c r="D17" t="n">
-        <v>422.68</v>
+        <v>381.28</v>
       </c>
       <c r="E17" t="n">
-        <v>7.032</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>313.62</v>
+        <v>340.82</v>
       </c>
       <c r="D18" t="n">
-        <v>360.74</v>
+        <v>385.72</v>
       </c>
       <c r="E18" t="n">
-        <v>6.376</v>
+        <v>6.868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>436.28</v>
+        <v>400.78</v>
       </c>
       <c r="D19" t="n">
-        <v>496.08</v>
+        <v>453.44</v>
       </c>
       <c r="E19" t="n">
-        <v>1.412</v>
+        <v>4.636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>496.08</v>
+        <v>419.9</v>
       </c>
       <c r="D20" t="n">
-        <v>570.0599999999999</v>
+        <v>467.1</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>413.76</v>
+        <v>385.72</v>
       </c>
       <c r="D21" t="n">
-        <v>467.26</v>
+        <v>439.9</v>
       </c>
       <c r="E21" t="n">
-        <v>2.264</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>467.26</v>
+        <v>467.1</v>
       </c>
       <c r="D22" t="n">
-        <v>495.26</v>
+        <v>504.32</v>
       </c>
       <c r="E22" t="n">
-        <v>0.104</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>495.26</v>
+        <v>504.32</v>
       </c>
       <c r="D23" t="n">
-        <v>606.35</v>
+        <v>583.8200000000001</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -880,83 +880,83 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>422.68</v>
+        <v>381.28</v>
       </c>
       <c r="D24" t="n">
-        <v>464.58</v>
+        <v>447.34</v>
       </c>
       <c r="E24" t="n">
-        <v>4.952</v>
+        <v>2.816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>606.35</v>
+        <v>259.58</v>
       </c>
       <c r="D25" t="n">
-        <v>665.61</v>
+        <v>303.96</v>
       </c>
       <c r="E25" t="n">
-        <v>27.244</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>360.74</v>
+        <v>447.34</v>
       </c>
       <c r="D26" t="n">
-        <v>422.76</v>
+        <v>504.14</v>
       </c>
       <c r="E26" t="n">
-        <v>3.784</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>393.7</v>
+        <v>504.14</v>
       </c>
       <c r="D27" t="n">
-        <v>431.7</v>
+        <v>574.5700000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>2.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -964,70 +964,70 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>251.28</v>
+        <v>574.5700000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>304.78</v>
+        <v>633.87</v>
       </c>
       <c r="E28" t="n">
-        <v>13.632</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>304.78</v>
+        <v>439.9</v>
       </c>
       <c r="D29" t="n">
-        <v>379.06</v>
+        <v>501.8</v>
       </c>
       <c r="E29" t="n">
-        <v>10.824</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>464.58</v>
+        <v>501.8</v>
       </c>
       <c r="D30" t="n">
-        <v>529.08</v>
+        <v>596.24</v>
       </c>
       <c r="E30" t="n">
-        <v>2.092</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>379.06</v>
+        <v>303.96</v>
       </c>
       <c r="D31" t="n">
-        <v>440.12</v>
+        <v>344.02</v>
       </c>
       <c r="E31" t="n">
-        <v>7.848</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>529.08</v>
+        <v>344.02</v>
       </c>
       <c r="D32" t="n">
-        <v>621.3</v>
+        <v>388.32</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>3.248</v>
       </c>
     </row>
     <row r="33">
@@ -1059,70 +1059,70 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>621.3</v>
+        <v>388.32</v>
       </c>
       <c r="D33" t="n">
-        <v>656.38</v>
+        <v>442.4</v>
       </c>
       <c r="E33" t="n">
-        <v>27.192</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>422.76</v>
+        <v>442.4</v>
       </c>
       <c r="D34" t="n">
-        <v>466.5</v>
+        <v>508.52</v>
       </c>
       <c r="E34" t="n">
-        <v>1.54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>466.5</v>
+        <v>596.24</v>
       </c>
       <c r="D35" t="n">
-        <v>554.92</v>
+        <v>657.04</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>431.7</v>
+        <v>508.52</v>
       </c>
       <c r="D36" t="n">
-        <v>470.88</v>
+        <v>561.22</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07199999999999999</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="37">
@@ -1131,60 +1131,60 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>470.88</v>
+        <v>395.98</v>
       </c>
       <c r="D37" t="n">
-        <v>582.14</v>
+        <v>459.78</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>1.732</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>440.12</v>
+        <v>459.78</v>
       </c>
       <c r="D38" t="n">
-        <v>487.02</v>
+        <v>567.62</v>
       </c>
       <c r="E38" t="n">
-        <v>5.768</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>582.14</v>
+        <v>583.8200000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>649.9400000000001</v>
+        <v>638.08</v>
       </c>
       <c r="E39" t="n">
-        <v>27.36</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>570.0599999999999</v>
+        <v>453.44</v>
       </c>
       <c r="D40" t="n">
-        <v>609.46</v>
+        <v>526.64</v>
       </c>
       <c r="E40" t="n">
-        <v>26.76</v>
+        <v>1.396</v>
       </c>
     </row>
     <row r="41">
@@ -1207,74 +1207,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>554.92</v>
+        <v>526.64</v>
       </c>
       <c r="D41" t="n">
-        <v>622.12</v>
+        <v>590.85</v>
       </c>
       <c r="E41" t="n">
-        <v>26.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>487.02</v>
+        <v>590.85</v>
       </c>
       <c r="D42" t="n">
-        <v>543.84</v>
+        <v>664.71</v>
       </c>
       <c r="E42" t="n">
-        <v>3.176</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>609.46</v>
+        <v>567.62</v>
       </c>
       <c r="D43" t="n">
-        <v>646.96</v>
+        <v>639.84</v>
       </c>
       <c r="E43" t="n">
-        <v>24.64</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond64</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>646.96</v>
-      </c>
-      <c r="D44" t="n">
-        <v>690.1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>21.956</v>
+        <v>27.408</v>
       </c>
     </row>
   </sheetData>
